--- a/exports/employees.xlsx
+++ b/exports/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="154">
   <si>
     <t>Sl_No</t>
   </si>
@@ -26,22 +26,358 @@
     <t>employeeRole</t>
   </si>
   <si>
+    <t>31207</t>
+  </si>
+  <si>
+    <t>Sai Sarath</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>31043</t>
+  </si>
+  <si>
+    <t>Usha M</t>
+  </si>
+  <si>
+    <t>31089</t>
+  </si>
+  <si>
+    <t>Parameswar Parida     </t>
+  </si>
+  <si>
+    <t>Team Lead</t>
+  </si>
+  <si>
+    <t>31204</t>
+  </si>
+  <si>
+    <t>Kuna Parida                      </t>
+  </si>
+  <si>
+    <t>31220</t>
+  </si>
+  <si>
+    <t>Yash Dipt                           </t>
+  </si>
+  <si>
+    <t>31221</t>
+  </si>
+  <si>
+    <t>Manoranjan Nayak       </t>
+  </si>
+  <si>
+    <t>31239</t>
+  </si>
+  <si>
+    <t>Sagar Maharana             </t>
+  </si>
+  <si>
+    <t>31232</t>
+  </si>
+  <si>
+    <t>Sana samskruti              </t>
+  </si>
+  <si>
+    <t>11083</t>
+  </si>
+  <si>
+    <t>Shabaz Pasha</t>
+  </si>
+  <si>
+    <t>31234</t>
+  </si>
+  <si>
+    <t>Asish Ray</t>
+  </si>
+  <si>
+    <t>31191</t>
+  </si>
+  <si>
+    <t>Suman Barman</t>
+  </si>
+  <si>
+    <t>31243</t>
+  </si>
+  <si>
+    <t>Rohit Dandapat</t>
+  </si>
+  <si>
+    <t>31214</t>
+  </si>
+  <si>
+    <t>Satya Pragyan Rath</t>
+  </si>
+  <si>
+    <t>31318</t>
+  </si>
+  <si>
+    <t>Rahul Varma</t>
+  </si>
+  <si>
+    <t>31160</t>
+  </si>
+  <si>
+    <t>Rupali Mishra</t>
+  </si>
+  <si>
+    <t>31166</t>
+  </si>
+  <si>
+    <t>A Manisha Patro</t>
+  </si>
+  <si>
+    <t>31203</t>
+  </si>
+  <si>
+    <t>Gayatri Jayant Shetty</t>
+  </si>
+  <si>
+    <t>31218</t>
+  </si>
+  <si>
+    <t>Gourav M</t>
+  </si>
+  <si>
+    <t>31223</t>
+  </si>
+  <si>
+    <t>Premnath K</t>
+  </si>
+  <si>
+    <t>31235</t>
+  </si>
+  <si>
+    <t>Sanjana J</t>
+  </si>
+  <si>
+    <t>31236</t>
+  </si>
+  <si>
+    <t>Bibhuti Mahapatra</t>
+  </si>
+  <si>
+    <t>31240</t>
+  </si>
+  <si>
+    <t>Surya Prakash Das</t>
+  </si>
+  <si>
+    <t>31267</t>
+  </si>
+  <si>
+    <t>Shiyam Ram</t>
+  </si>
+  <si>
+    <t>31086</t>
+  </si>
+  <si>
+    <t>Chiranjeevi S</t>
+  </si>
+  <si>
+    <t>31192</t>
+  </si>
+  <si>
+    <t>Vankara Pavan Sai Kishore Naidu</t>
+  </si>
+  <si>
+    <t>31336</t>
+  </si>
+  <si>
+    <t>Senthil Selvaraj</t>
+  </si>
+  <si>
+    <t>31222</t>
+  </si>
+  <si>
+    <t>V K Guru Arunachalam</t>
+  </si>
+  <si>
+    <t>31360</t>
+  </si>
+  <si>
+    <t>Kullu Mounika</t>
+  </si>
+  <si>
+    <t>31361</t>
+  </si>
+  <si>
+    <t>Podinala Harshitha</t>
+  </si>
+  <si>
+    <t>31362</t>
+  </si>
+  <si>
+    <t>Roopashree S</t>
+  </si>
+  <si>
+    <t>31363</t>
+  </si>
+  <si>
+    <t>Nishchitha Gowda D</t>
+  </si>
+  <si>
+    <t>31174</t>
+  </si>
+  <si>
+    <t>Abhilash Kar</t>
+  </si>
+  <si>
+    <t>31365</t>
+  </si>
+  <si>
+    <t>Abhisheik V</t>
+  </si>
+  <si>
+    <t>31332</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>31335</t>
+  </si>
+  <si>
+    <t>Sivakarthiken</t>
+  </si>
+  <si>
+    <t>31215</t>
+  </si>
+  <si>
+    <t>Abhishek Thakur</t>
+  </si>
+  <si>
+    <t>31161</t>
+  </si>
+  <si>
+    <t>Bhagabati Prasad Panda</t>
+  </si>
+  <si>
+    <t>31163</t>
+  </si>
+  <si>
+    <t>Gayathri Ramaraj</t>
+  </si>
+  <si>
+    <t>31178</t>
+  </si>
+  <si>
+    <t>Kamarthi Siva Kumar</t>
+  </si>
+  <si>
+    <t>31231</t>
+  </si>
+  <si>
+    <t>Srinivasan T</t>
+  </si>
+  <si>
+    <t>31037</t>
+  </si>
+  <si>
+    <t>Sakthivel M</t>
+  </si>
+  <si>
     <t>31057</t>
   </si>
   <si>
     <t>Vidyashree Acharya</t>
   </si>
   <si>
-    <t>Team Lead</t>
-  </si>
-  <si>
-    <t>31222</t>
-  </si>
-  <si>
-    <t>V K Guru Arunachalam</t>
-  </si>
-  <si>
-    <t>Developer</t>
+    <t>31305</t>
+  </si>
+  <si>
+    <t>Ujjal Saha</t>
+  </si>
+  <si>
+    <t>31346</t>
+  </si>
+  <si>
+    <t>Pranav Sinha</t>
+  </si>
+  <si>
+    <t>31354</t>
+  </si>
+  <si>
+    <t>Nikhil Jayavant Naikwad</t>
+  </si>
+  <si>
+    <t>31337</t>
+  </si>
+  <si>
+    <t>Kumar Reddy Chagamreddy</t>
+  </si>
+  <si>
+    <t>31338</t>
+  </si>
+  <si>
+    <t>Mohammed Mushraf Ashrafi</t>
+  </si>
+  <si>
+    <t>31339</t>
+  </si>
+  <si>
+    <t>Donkina Tejeswar</t>
+  </si>
+  <si>
+    <t>31340</t>
+  </si>
+  <si>
+    <t>Nikku Kumar</t>
+  </si>
+  <si>
+    <t>31352</t>
+  </si>
+  <si>
+    <t>Manas Ranjan Tripathy</t>
+  </si>
+  <si>
+    <t>31347</t>
+  </si>
+  <si>
+    <t>Pritam Mishra</t>
+  </si>
+  <si>
+    <t>31348</t>
+  </si>
+  <si>
+    <t>Vasamsetti Prasanna Kumar</t>
+  </si>
+  <si>
+    <t>31349</t>
+  </si>
+  <si>
+    <t>Kamatchi Raja B</t>
+  </si>
+  <si>
+    <t>31350</t>
+  </si>
+  <si>
+    <t>Darshan K</t>
+  </si>
+  <si>
+    <t>31351</t>
+  </si>
+  <si>
+    <t>Manikanta Naidu Lolugu</t>
+  </si>
+  <si>
+    <t>31341</t>
+  </si>
+  <si>
+    <t>Kanala Venkata Mohan Reddy</t>
+  </si>
+  <si>
+    <t>31369</t>
+  </si>
+  <si>
+    <t>Shivadharshan S</t>
+  </si>
+  <si>
+    <t>31367</t>
+  </si>
+  <si>
+    <t>Vijay R</t>
   </si>
   <si>
     <t>31374</t>
@@ -50,16 +386,28 @@
     <t>Srijanani S</t>
   </si>
   <si>
-    <t>31160</t>
-  </si>
-  <si>
-    <t>Rupali Mishra</t>
-  </si>
-  <si>
-    <t>31204</t>
-  </si>
-  <si>
-    <t>Kuna Parida                      </t>
+    <t>31371</t>
+  </si>
+  <si>
+    <t>Parvin Raj</t>
+  </si>
+  <si>
+    <t>31375</t>
+  </si>
+  <si>
+    <t>Sumitha P</t>
+  </si>
+  <si>
+    <t>31373</t>
+  </si>
+  <si>
+    <t>Prathaksana S</t>
+  </si>
+  <si>
+    <t>31370</t>
+  </si>
+  <si>
+    <t>Abikpadman J</t>
   </si>
   <si>
     <t>31368</t>
@@ -68,16 +416,46 @@
     <t>Abhijit TK</t>
   </si>
   <si>
-    <t>31363</t>
-  </si>
-  <si>
-    <t>Nishchitha Gowda D</t>
-  </si>
-  <si>
-    <t>31089</t>
-  </si>
-  <si>
-    <t>Parameswar Parida</t>
+    <t>31372</t>
+  </si>
+  <si>
+    <t>Jai Sudharshini S</t>
+  </si>
+  <si>
+    <t>31355</t>
+  </si>
+  <si>
+    <t>Dibyansu Mahapatra</t>
+  </si>
+  <si>
+    <t>31164</t>
+  </si>
+  <si>
+    <t>Srihari</t>
+  </si>
+  <si>
+    <t>31394</t>
+  </si>
+  <si>
+    <t>Siddhi Sinha</t>
+  </si>
+  <si>
+    <t>31359</t>
+  </si>
+  <si>
+    <t>Piyush Merchant</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>31072</t>
+  </si>
+  <si>
+    <t>Alok Kumar Mohanty</t>
+  </si>
+  <si>
+    <t>Delivery Head</t>
   </si>
   <si>
     <t>31251</t>
@@ -86,391 +464,16 @@
     <t>Calvin Clifford</t>
   </si>
   <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>31203</t>
-  </si>
-  <si>
-    <t>Gayatri Jayant Shetty</t>
-  </si>
-  <si>
-    <t>31359</t>
-  </si>
-  <si>
-    <t>Piyush Merchant</t>
-  </si>
-  <si>
-    <t>31072</t>
-  </si>
-  <si>
-    <t>Alok Kumar Mohanty</t>
-  </si>
-  <si>
-    <t>Delivery Head</t>
-  </si>
-  <si>
-    <t>31086</t>
-  </si>
-  <si>
-    <t>Chiranjeevi S</t>
-  </si>
-  <si>
-    <t>31341</t>
-  </si>
-  <si>
-    <t>Kanala Venkata Mohan Reddy</t>
-  </si>
-  <si>
-    <t>31235</t>
-  </si>
-  <si>
-    <t>Sanjana J</t>
-  </si>
-  <si>
-    <t>31239</t>
-  </si>
-  <si>
-    <t>Sagar Maharana             </t>
-  </si>
-  <si>
-    <t>31373</t>
-  </si>
-  <si>
-    <t>Prathaksana S</t>
-  </si>
-  <si>
-    <t>31243</t>
-  </si>
-  <si>
-    <t>Rohit Dandapat</t>
-  </si>
-  <si>
-    <t>31267</t>
-  </si>
-  <si>
-    <t>Shiyam Ram</t>
-  </si>
-  <si>
-    <t>31318</t>
-  </si>
-  <si>
-    <t>Rahul Varma</t>
-  </si>
-  <si>
-    <t>31332</t>
-  </si>
-  <si>
-    <t>Harish</t>
-  </si>
-  <si>
-    <t>31335</t>
-  </si>
-  <si>
-    <t>Sivakarthiken</t>
-  </si>
-  <si>
-    <t>31338</t>
-  </si>
-  <si>
-    <t>Mohammed Mushraf Ashrafi</t>
-  </si>
-  <si>
-    <t>31346</t>
-  </si>
-  <si>
-    <t>Pranav Sinha</t>
-  </si>
-  <si>
-    <t>31234</t>
-  </si>
-  <si>
-    <t>Asish Ray</t>
-  </si>
-  <si>
-    <t>31347</t>
-  </si>
-  <si>
-    <t>Pritam Mishra</t>
-  </si>
-  <si>
-    <t>31348</t>
-  </si>
-  <si>
-    <t>Vasamsetti Prasanna Kumar</t>
-  </si>
-  <si>
-    <t>31349</t>
-  </si>
-  <si>
-    <t>Kamatchi Raja B</t>
-  </si>
-  <si>
-    <t>31350</t>
-  </si>
-  <si>
-    <t>Darshan K</t>
-  </si>
-  <si>
-    <t>31351</t>
-  </si>
-  <si>
-    <t>Manikanta Naidu Lolugu</t>
-  </si>
-  <si>
-    <t>31354</t>
-  </si>
-  <si>
-    <t>Nikhil Jayavant Naikwad</t>
-  </si>
-  <si>
-    <t>31355</t>
-  </si>
-  <si>
-    <t>Dibyansu Mahapatra</t>
-  </si>
-  <si>
-    <t>31360</t>
-  </si>
-  <si>
-    <t>Kullu Mounika</t>
-  </si>
-  <si>
-    <t>31214</t>
-  </si>
-  <si>
-    <t>Satya Pragyan Rath</t>
-  </si>
-  <si>
-    <t>31362</t>
-  </si>
-  <si>
-    <t>Roopashree S</t>
-  </si>
-  <si>
-    <t>31365</t>
-  </si>
-  <si>
-    <t>Abhisheik V</t>
-  </si>
-  <si>
-    <t>31375</t>
-  </si>
-  <si>
-    <t>Sumitha P</t>
-  </si>
-  <si>
-    <t>31369</t>
-  </si>
-  <si>
-    <t>Shivadharshan S</t>
-  </si>
-  <si>
-    <t>31240</t>
-  </si>
-  <si>
-    <t>Surya Prakash Das</t>
-  </si>
-  <si>
-    <t>31370</t>
-  </si>
-  <si>
-    <t>Abikpadman J</t>
-  </si>
-  <si>
-    <t>31394</t>
-  </si>
-  <si>
-    <t>Siddhi Sinha</t>
-  </si>
-  <si>
-    <t>31371</t>
-  </si>
-  <si>
-    <t>Parvin Raj</t>
-  </si>
-  <si>
-    <t>11083</t>
-  </si>
-  <si>
-    <t>Shabaz Pasha</t>
-  </si>
-  <si>
-    <t>31221</t>
-  </si>
-  <si>
-    <t>Manoranjan Nayak       </t>
-  </si>
-  <si>
-    <t>31223</t>
-  </si>
-  <si>
-    <t>Premnath K</t>
-  </si>
-  <si>
-    <t>31037</t>
-  </si>
-  <si>
-    <t>Sakthivel M</t>
-  </si>
-  <si>
-    <t>31361</t>
-  </si>
-  <si>
-    <t>Podinala Harshitha</t>
-  </si>
-  <si>
-    <t>31163</t>
-  </si>
-  <si>
-    <t>Gayathri Ramaraj</t>
-  </si>
-  <si>
-    <t>31164</t>
-  </si>
-  <si>
-    <t>Srihari</t>
-  </si>
-  <si>
-    <t>31174</t>
-  </si>
-  <si>
-    <t>Abhilash Kar</t>
-  </si>
-  <si>
-    <t>31178</t>
-  </si>
-  <si>
-    <t>Kamarthi Siva Kumar</t>
-  </si>
-  <si>
-    <t>31231</t>
-  </si>
-  <si>
-    <t>Srinivasan T</t>
-  </si>
-  <si>
-    <t>31336</t>
-  </si>
-  <si>
-    <t>Senthil Selvaraj</t>
-  </si>
-  <si>
-    <t>31305</t>
-  </si>
-  <si>
-    <t>Ujjal Saha</t>
-  </si>
-  <si>
-    <t>31337</t>
-  </si>
-  <si>
-    <t>Kumar Reddy Chagamreddy</t>
-  </si>
-  <si>
-    <t>31161</t>
-  </si>
-  <si>
-    <t>Bhagabati Prasad Panda</t>
-  </si>
-  <si>
-    <t>31236</t>
-  </si>
-  <si>
-    <t>Bibhuti Mahapatra</t>
-  </si>
-  <si>
-    <t>31192</t>
-  </si>
-  <si>
-    <t>Vankara Pavan Sai Kishore Naidu</t>
-  </si>
-  <si>
-    <t>31215</t>
-  </si>
-  <si>
-    <t>Abhishek Thakur</t>
-  </si>
-  <si>
-    <t>31166</t>
-  </si>
-  <si>
-    <t>A Manisha Patro</t>
-  </si>
-  <si>
-    <t>31220</t>
-  </si>
-  <si>
-    <t>Yash Dipt                           </t>
-  </si>
-  <si>
-    <t>31367</t>
-  </si>
-  <si>
-    <t>Vijay R</t>
-  </si>
-  <si>
-    <t>31340</t>
-  </si>
-  <si>
-    <t>Nikku Kumar</t>
-  </si>
-  <si>
-    <t>31207</t>
-  </si>
-  <si>
-    <t>Sai Sarath</t>
-  </si>
-  <si>
-    <t>31191</t>
-  </si>
-  <si>
-    <t>Suman Barman</t>
-  </si>
-  <si>
-    <t>31372</t>
-  </si>
-  <si>
-    <t>Jai Sudharshini S</t>
-  </si>
-  <si>
-    <t>31232</t>
-  </si>
-  <si>
-    <t>Sana samskruti              </t>
-  </si>
-  <si>
-    <t>31352</t>
-  </si>
-  <si>
-    <t>Manas Ranjan Tripathy</t>
-  </si>
-  <si>
-    <t>31218</t>
-  </si>
-  <si>
-    <t>Gourav M</t>
-  </si>
-  <si>
-    <t>31339</t>
-  </si>
-  <si>
-    <t>Donkina Tejeswar</t>
-  </si>
-  <si>
-    <t>31043</t>
-  </si>
-  <si>
-    <t>Usha M</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Ranjit</t>
-  </si>
-  <si>
-    <t>developer</t>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>Jack Rich</t>
+  </si>
+  <si>
+    <t>3334</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -566,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -574,13 +577,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="D4" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -594,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -636,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +667,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -672,13 +675,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -686,13 +689,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -700,13 +703,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>30</v>
-      </c>
       <c r="D13" t="s" s="0">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -714,13 +717,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -728,13 +731,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -742,13 +745,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -756,13 +759,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +773,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -784,13 +787,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -798,13 +801,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -812,13 +815,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -826,13 +829,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -840,13 +843,13 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -854,13 +857,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -868,13 +871,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +885,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -896,13 +899,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +913,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -924,13 +927,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -938,13 +941,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -952,13 +955,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -966,13 +969,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -980,13 +983,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -994,13 +997,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -1008,13 +1011,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1022,13 +1025,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1036,13 +1039,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1050,13 +1053,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1064,13 +1067,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1078,13 +1081,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1092,13 +1095,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1106,13 +1109,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1120,13 +1123,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1137,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -1148,13 +1151,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -1162,13 +1165,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1176,10 +1179,10 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s" s="0">
         <v>6</v>
@@ -1190,13 +1193,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -1204,10 +1207,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>6</v>
@@ -1218,10 +1221,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>6</v>
@@ -1232,10 +1235,10 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>6</v>
@@ -1246,10 +1249,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s" s="0">
         <v>6</v>
@@ -1260,10 +1263,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>6</v>
@@ -1274,10 +1277,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s" s="0">
         <v>6</v>
@@ -1288,13 +1291,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1302,13 +1305,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1316,13 +1319,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -1330,13 +1333,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -1344,10 +1347,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s" s="0">
         <v>6</v>
@@ -1358,10 +1361,10 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s" s="0">
         <v>6</v>
@@ -1372,13 +1375,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1386,13 +1389,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1400,13 +1403,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -1414,13 +1417,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1428,13 +1431,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -1442,13 +1445,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -1456,13 +1459,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1470,13 +1473,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
@@ -1484,13 +1487,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1498,13 +1501,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D70" t="s" s="0">
         <v>144</v>
-      </c>
-      <c r="C70" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -1512,13 +1515,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="C71" t="s" s="0">
+      <c r="D71" t="s" s="0">
         <v>147</v>
-      </c>
-      <c r="D71" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -1532,7 +1535,7 @@
         <v>149</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>9</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -1546,7 +1549,21 @@
         <v>151</v>
       </c>
       <c r="D73" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s" s="0">
         <v>152</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
